--- a/Plancheck/plancheck_data/check_protocol/poumon.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/poumon.xlsx
@@ -379,9 +379,6 @@
     <t>PTV_AUTRES</t>
   </si>
   <si>
-    <t>Coeur–PTVs</t>
-  </si>
-  <si>
     <t>Estomac-PTVs</t>
   </si>
   <si>
@@ -482,6 +479,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Coeur-PTVs</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B40"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1715,7 +1715,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="29"/>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>147</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>148</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>149</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -2090,7 +2090,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>110</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>110</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>110</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>110</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>110</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>110</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>110</v>
@@ -2418,7 +2418,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,47 +2454,47 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,21 +2660,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2682,13 +2682,13 @@
         <v>112</v>
       </c>
       <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
         <v>134</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2697,10 +2697,10 @@
         <v>Oesophage</v>
       </c>
       <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
